--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24975" windowHeight="12180"/>
+    <workbookView windowWidth="24975" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="关卡配置" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>SP技能</t>
+  </si>
+  <si>
+    <t>建造花费</t>
   </si>
   <si>
     <t>升级花费</t>
@@ -229,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -628,8 +631,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1064,10 +1067,10 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E$1:E$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"攻击,防御,资源"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E$1:E$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -1081,10 +1084,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1096,13 +1099,14 @@
     <col min="5" max="7" width="17.875" style="1" customWidth="1"/>
     <col min="8" max="10" width="16.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,63 +1144,69 @@
         <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>10</v>
-      </c>
       <c r="N2" s="1">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>30</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="11:16">
+    <row r="3" s="1" customFormat="1" spans="11:17">
       <c r="K3" s="1">
         <v>2</v>
       </c>
@@ -1204,164 +1214,188 @@
         <v>10</v>
       </c>
       <c r="M3" s="1">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
         <v>15</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>30</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="11:16">
+    <row r="4" s="1" customFormat="1" spans="11:17">
       <c r="K4" s="1">
         <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>20</v>
       </c>
       <c r="N4" s="1">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>30</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="11:16">
+    <row r="5" s="1" customFormat="1" spans="11:17">
       <c r="K5" s="1">
         <v>4</v>
       </c>
       <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
         <v>30</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>25</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>30</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="11:16">
+    <row r="6" s="1" customFormat="1" spans="11:17">
       <c r="K6" s="1">
         <v>5</v>
       </c>
       <c r="L6" s="1">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1">
         <v>40</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>30</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>30</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="11:16">
+    <row r="7" s="1" customFormat="1" spans="11:17">
       <c r="K7" s="1">
         <v>6</v>
       </c>
       <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
         <v>50</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>35</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>30</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="11:16">
+    <row r="8" s="1" customFormat="1" spans="11:17">
       <c r="K8" s="1">
         <v>7</v>
       </c>
       <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
         <v>60</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>40</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>30</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="11:16">
+    <row r="9" s="1" customFormat="1" spans="11:17">
       <c r="K9" s="1">
         <v>8</v>
       </c>
       <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
         <v>70</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>45</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>30</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="11:16">
+    <row r="10" s="1" customFormat="1" spans="11:17">
       <c r="K10" s="1">
         <v>9</v>
       </c>
       <c r="L10" s="1">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
         <v>80</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>50</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>2</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>30</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="11:14">
+    <row r="11" s="1" customFormat="1" spans="11:15">
       <c r="K11" s="1">
         <v>10</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>48</v>
+      <c r="L11" s="1">
+        <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>49</v>
@@ -1369,52 +1403,58 @@
       <c r="N11" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:16">
+      <c r="O11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
       <c r="N12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1">
         <v>50</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="11:16">
+    <row r="13" s="1" customFormat="1" spans="11:17">
       <c r="K13" s="1">
         <v>2</v>
       </c>
@@ -1422,175 +1462,205 @@
         <v>10</v>
       </c>
       <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
         <v>15</v>
       </c>
-      <c r="N13" s="1">
-        <v>5</v>
-      </c>
       <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
         <v>80</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="14" spans="11:14">
+    <row r="14" spans="11:15">
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M14" s="1">
         <v>20</v>
       </c>
       <c r="N14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="11:14">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="11:15">
       <c r="K15" s="1">
         <v>4</v>
       </c>
       <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
         <v>30</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>25</v>
       </c>
-      <c r="N15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="11:14">
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="11:15">
       <c r="K16" s="1">
         <v>5</v>
       </c>
       <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
         <v>40</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>30</v>
       </c>
-      <c r="N16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14">
+      <c r="O16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:15">
       <c r="K17" s="1">
         <v>6</v>
       </c>
       <c r="L17" s="1">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1">
         <v>50</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>35</v>
       </c>
-      <c r="N17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14">
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15">
       <c r="K18" s="1">
         <v>7</v>
       </c>
       <c r="L18" s="1">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
         <v>60</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>40</v>
       </c>
-      <c r="N18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14">
+      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15">
       <c r="K19" s="1">
         <v>8</v>
       </c>
       <c r="L19" s="1">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
         <v>70</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>45</v>
       </c>
-      <c r="N19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14">
+      <c r="O19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15">
       <c r="K20" s="1">
         <v>9</v>
       </c>
       <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
         <v>80</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>50</v>
       </c>
-      <c r="N20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14">
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15">
       <c r="K21" s="1">
         <v>10</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>48</v>
+      <c r="L21" s="1">
+        <v>10</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:16">
+      <c r="N21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="1">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1">
-        <v>10</v>
-      </c>
       <c r="N22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O22" s="1">
+        <v>5</v>
+      </c>
+      <c r="P22" s="1">
         <v>50</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="11:16">
+    <row r="23" s="1" customFormat="1" spans="11:17">
       <c r="K23" s="1">
         <v>2</v>
       </c>
@@ -1598,127 +1668,154 @@
         <v>10</v>
       </c>
       <c r="M23" s="1">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1">
         <v>15</v>
       </c>
-      <c r="N23" s="1">
-        <v>5</v>
-      </c>
       <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1">
         <v>80</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="24" spans="11:14">
+    <row r="24" spans="11:15">
       <c r="K24" s="1">
         <v>3</v>
       </c>
       <c r="L24" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M24" s="1">
         <v>20</v>
       </c>
       <c r="N24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="11:14">
+        <v>20</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15">
       <c r="K25" s="1">
         <v>4</v>
       </c>
       <c r="L25" s="1">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1">
         <v>30</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>25</v>
       </c>
-      <c r="N25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="11:14">
+      <c r="O25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15">
       <c r="K26" s="1">
         <v>5</v>
       </c>
       <c r="L26" s="1">
+        <v>10</v>
+      </c>
+      <c r="M26" s="1">
         <v>40</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>30</v>
       </c>
-      <c r="N26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="11:14">
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="11:15">
       <c r="K27" s="1">
         <v>6</v>
       </c>
       <c r="L27" s="1">
+        <v>10</v>
+      </c>
+      <c r="M27" s="1">
         <v>50</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>35</v>
       </c>
-      <c r="N27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="11:14">
+      <c r="O27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="11:15">
       <c r="K28" s="1">
         <v>7</v>
       </c>
       <c r="L28" s="1">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1">
         <v>60</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>40</v>
       </c>
-      <c r="N28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="11:14">
+      <c r="O28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="11:15">
       <c r="K29" s="1">
         <v>8</v>
       </c>
       <c r="L29" s="1">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1">
         <v>70</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>45</v>
       </c>
-      <c r="N29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="11:14">
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="11:15">
       <c r="K30" s="1">
         <v>9</v>
       </c>
       <c r="L30" s="1">
+        <v>10</v>
+      </c>
+      <c r="M30" s="1">
         <v>80</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>50</v>
       </c>
-      <c r="N30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="11:14">
+      <c r="O30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="11:15">
       <c r="K31" s="1">
         <v>10</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>48</v>
+      <c r="L31" s="1">
+        <v>10</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1770,37 +1867,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>23</v>
@@ -1808,22 +1905,22 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1835,10 +1932,10 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="9:13">
@@ -1852,10 +1949,10 @@
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="9:13">
@@ -1869,10 +1966,10 @@
         <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="9:13">
@@ -1886,10 +1983,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="9:13">
@@ -1903,10 +2000,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="9:13">
@@ -1920,10 +2017,10 @@
         <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="9:13">
@@ -1937,10 +2034,10 @@
         <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="9:13">
@@ -1954,10 +2051,10 @@
         <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="9:13">
@@ -1971,30 +2068,30 @@
         <v>50</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2006,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24975" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="25080" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="关卡配置" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
     <t>20001</t>
   </si>
   <si>
+    <t>20002</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
@@ -167,16 +170,16 @@
     <t>50002</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>20002</t>
   </si>
   <si>
     <t>测试2</t>
@@ -232,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -629,13 +632,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
@@ -713,6 +716,14 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="10:11">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -744,13 +755,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -889,22 +900,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -912,16 +923,16 @@
         <v>50001</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>50001</v>
@@ -975,16 +986,16 @@
         <v>50002</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
       </c>
       <c r="G11" s="1">
         <v>50002</v>
@@ -1086,8 +1097,8 @@
   <sheetPr/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1114,49 +1125,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:17">
@@ -1164,25 +1175,31 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -1193,20 +1210,26 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>10</v>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="P2" s="1">
-        <v>30</v>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="Q2" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="11:17">
+    <row r="3" s="1" customFormat="1" spans="6:17">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="1">
         <v>2</v>
       </c>
@@ -1229,7 +1252,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="11:17">
+    <row r="4" s="1" customFormat="1" spans="6:17">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="1">
         <v>3</v>
       </c>
@@ -1252,7 +1281,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="11:17">
+    <row r="5" s="1" customFormat="1" spans="6:17">
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="1">
         <v>4</v>
       </c>
@@ -1275,7 +1310,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="11:17">
+    <row r="6" s="1" customFormat="1" spans="6:17">
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="1">
         <v>5</v>
       </c>
@@ -1298,7 +1339,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="11:17">
+    <row r="7" s="1" customFormat="1" spans="6:17">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="1">
         <v>6</v>
       </c>
@@ -1321,7 +1368,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="11:17">
+    <row r="8" s="1" customFormat="1" spans="6:17">
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="1">
         <v>7</v>
       </c>
@@ -1344,7 +1397,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="11:17">
+    <row r="9" s="1" customFormat="1" spans="6:17">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="1">
         <v>8</v>
       </c>
@@ -1367,7 +1426,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="11:17">
+    <row r="10" s="1" customFormat="1" spans="6:17">
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="1">
         <v>9</v>
       </c>
@@ -1390,7 +1455,13 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="11:15">
+    <row r="11" s="1" customFormat="1" spans="6:17">
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="1">
         <v>10</v>
       </c>
@@ -1398,39 +1469,51 @@
         <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="P11" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>10001</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1448,13 +1531,19 @@
         <v>5</v>
       </c>
       <c r="P12" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="11:17">
+    <row r="13" s="1" customFormat="1" spans="6:17">
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="1">
         <v>2</v>
       </c>
@@ -1471,13 +1560,19 @@
         <v>5</v>
       </c>
       <c r="P13" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="14" spans="11:15">
+    <row r="14" spans="6:17">
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
@@ -1493,8 +1588,20 @@
       <c r="O14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="11:15">
+      <c r="P14" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17">
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="1">
         <v>4</v>
       </c>
@@ -1510,8 +1617,20 @@
       <c r="O15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="11:15">
+      <c r="P15" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17">
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K16" s="1">
         <v>5</v>
       </c>
@@ -1527,8 +1646,20 @@
       <c r="O16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="11:15">
+      <c r="P16" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17">
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="1">
         <v>6</v>
       </c>
@@ -1544,8 +1675,20 @@
       <c r="O17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="11:15">
+      <c r="P17" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17">
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K18" s="1">
         <v>7</v>
       </c>
@@ -1561,8 +1704,20 @@
       <c r="O18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="11:15">
+      <c r="P18" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17">
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K19" s="1">
         <v>8</v>
       </c>
@@ -1578,8 +1733,20 @@
       <c r="O19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="11:15">
+      <c r="P19" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17">
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K20" s="1">
         <v>9</v>
       </c>
@@ -1595,8 +1762,20 @@
       <c r="O20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="11:15">
+      <c r="P20" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17">
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K21" s="1">
         <v>10</v>
       </c>
@@ -1604,39 +1783,51 @@
         <v>10</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O21" s="1">
         <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>20001</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -1654,13 +1845,19 @@
         <v>5</v>
       </c>
       <c r="P22" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="11:17">
+    <row r="23" s="1" customFormat="1" spans="6:17">
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K23" s="1">
         <v>2</v>
       </c>
@@ -1677,13 +1874,19 @@
         <v>5</v>
       </c>
       <c r="P23" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="24" spans="11:15">
+    <row r="24" spans="6:17">
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K24" s="1">
         <v>3</v>
       </c>
@@ -1699,8 +1902,20 @@
       <c r="O24" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="11:15">
+      <c r="P24" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17">
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K25" s="1">
         <v>4</v>
       </c>
@@ -1716,8 +1931,20 @@
       <c r="O25" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="11:15">
+      <c r="P25" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K26" s="1">
         <v>5</v>
       </c>
@@ -1733,8 +1960,20 @@
       <c r="O26" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="11:15">
+      <c r="P26" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K27" s="1">
         <v>6</v>
       </c>
@@ -1750,8 +1989,20 @@
       <c r="O27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="11:15">
+      <c r="P27" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K28" s="1">
         <v>7</v>
       </c>
@@ -1767,8 +2018,20 @@
       <c r="O28" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="11:15">
+      <c r="P28" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K29" s="1">
         <v>8</v>
       </c>
@@ -1784,8 +2047,20 @@
       <c r="O29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="11:15">
+      <c r="P29" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17">
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K30" s="1">
         <v>9</v>
       </c>
@@ -1801,8 +2076,20 @@
       <c r="O30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="11:15">
+      <c r="P30" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17">
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K31" s="1">
         <v>10</v>
       </c>
@@ -1810,13 +2097,19 @@
         <v>10</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O31" s="1">
         <v>5</v>
+      </c>
+      <c r="P31" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>20001</v>
       </c>
     </row>
   </sheetData>
@@ -1825,12 +2118,12 @@
       <formula1>"普通召唤,英雄,BOSS"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="召唤单位,英雄,BOSS" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 E1 F1 G1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E11 E12 E22 E4:E10 E13:E21 E23:E31 E32:E65537">
+      <formula1>"近战,远程"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 E1 F1 G1 F2:F11 F12:F21 F22:F31 F32:F1048576 G2:G31 G32:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D11 D12 D22 D4:D10 D13:D21 D23:D31 D32:D65537">
       <formula1>"地面,飞行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 F2 G2 E11 F11 G11 E12 F12 G12 E22 F22 G22 E4:E10 E13:E21 E23:E31 E32:E65537 F4:F10 F13:F21 F23:F31 F32:F65537 G4:G10 G13:G21 G23:G31 G32:G65537">
-      <formula1>"近战,远程"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1845,7 +2138,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1867,60 +2160,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1932,10 +2225,10 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="9:13">
@@ -1949,10 +2242,10 @@
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="9:13">
@@ -1966,10 +2259,10 @@
         <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="9:13">
@@ -1983,10 +2276,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="9:13">
@@ -2000,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="9:13">
@@ -2017,10 +2310,10 @@
         <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="9:13">
@@ -2034,10 +2327,10 @@
         <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="9:13">
@@ -2051,10 +2344,10 @@
         <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="9:13">
@@ -2068,30 +2361,30 @@
         <v>50</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2103,22 +2396,22 @@
         <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 E1 F1 H1 D11 G11 D1:D10 D12:D1048576 G1:G10 G12:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C11 C4:C10 C12:C65536">
       <formula1>"近战,远程"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 D1 F1 H1 E11 G11 E1:E10 E12:E1048576 G1:G10 G12:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H2:H10 H12:H1048576">
       <formula1>"恢复,伤害"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576">
       <formula1>"单个,全体"</formula1>
     </dataValidation>
   </dataValidations>
